--- a/Actions.xlsx
+++ b/Actions.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="Brandon"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcdow\Documents\GitHub\TeamProject7\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B152B56-C689-4194-8FC9-48DAA4DC4DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$2</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1725031464" val="1216" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -48,168 +53,98 @@
   <si>
     <t>Artifact</t>
   </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>Collect hardware items from Mr. Kelly that are in stock in Russ building</t>
+  </si>
+  <si>
+    <t>Submit Order for any remaining parts needed</t>
+  </si>
+  <si>
+    <t>I did this Tuesday</t>
+  </si>
+  <si>
+    <t>Sent email to Mr. Kelley on 8/31</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="14">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="2" formatCode="0.00"/>
-    <numFmt numFmtId="1" formatCode="0"/>
-    <numFmt numFmtId="49" formatCode="@"/>
-    <numFmt numFmtId="164" formatCode="001"/>
-    <numFmt numFmtId="165" formatCode="00"/>
-    <numFmt numFmtId="166" formatCode="000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="174" formatCode="000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1725031464" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
-      <name val="Basic Sans"/>
-      <family val="1"/>
+      <b/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1725031464" ulstyle="none" kern="1">
-            <pm:latin face="Basic Sans" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="16"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1725031464" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="320" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1725031464" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="240" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1725031464" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1725031464"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1725031464"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1725031464" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
@@ -474,27 +409,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G211"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.80"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.855856" customWidth="1" style="3"/>
-    <col min="2" max="2" width="13.936937" customWidth="1" style="1"/>
-    <col min="3" max="3" width="14.180180" customWidth="1" style="1"/>
-    <col min="4" max="4" width="17.900901" customWidth="1" style="1"/>
-    <col min="5" max="5" width="8.963964" customWidth="1" style="1"/>
-    <col min="6" max="6" width="17.972973" customWidth="1" style="1"/>
-    <col min="7" max="7" width="12.666667" customWidth="1" style="1"/>
-    <col min="8" max="16384" width="10.000000" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="48.10" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="48.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -517,1075 +451,1096 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="n">
+      <c r="B2" s="5">
+        <v>45531</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>45535</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45535</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="n">
+      <c r="B3" s="5">
+        <v>45531</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45535</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45535</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3" t="n">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3" t="n">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3" t="n">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="3" t="n">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="3" t="n">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="3" t="n">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3" t="n">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="3" t="n">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3" t="n">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3" t="n">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="3" t="n">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3" t="n">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3" t="n">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3" t="n">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3" t="n">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3" t="n">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3" t="n">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3" t="n">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3" t="n">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3" t="n">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3" t="n">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3" t="n">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="3" t="n">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="3" t="n">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="3" t="n">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3" t="n">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="3" t="n">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3" t="n">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="3" t="n">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="3" t="n">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="3" t="n">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="3" t="n">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="3" t="n">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="3" t="n">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="3" t="n">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="3" t="n">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="3" t="n">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="3" t="n">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="3" t="n">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="3" t="n">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="3" t="n">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="3" t="n">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="3" t="n">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="3" t="n">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="3" t="n">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="3" t="n">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="3" t="n">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="3" t="n">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3" t="n">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="3" t="n">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="3" t="n">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="3" t="n">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="3" t="n">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="3" t="n">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="3" t="n">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="3" t="n">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="3" t="n">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="3" t="n">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="3" t="n">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="3" t="n">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="3" t="n">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="3" t="n">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="3" t="n">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="3" t="n">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="3" t="n">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="3" t="n">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="3" t="n">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="3" t="n">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="3" t="n">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="3" t="n">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="3" t="n">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="3" t="n">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="3" t="n">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="3" t="n">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="3" t="n">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="3" t="n">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="3" t="n">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="3" t="n">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="3" t="n">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="3" t="n">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="3" t="n">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="3" t="n">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="3" t="n">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="3" t="n">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="3" t="n">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="3" t="n">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="3" t="n">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="3" t="n">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="3" t="n">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="3" t="n">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="3" t="n">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="3" t="n">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="3" t="n">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="3" t="n">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="3" t="n">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="3" t="n">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="3" t="n">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="3" t="n">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="3" t="n">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="3" t="n">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="3" t="n">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="3" t="n">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="3" t="n">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="3" t="n">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="3" t="n">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="3" t="n">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="3" t="n">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="3" t="n">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="3" t="n">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="3" t="n">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="3" t="n">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="3" t="n">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="3" t="n">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="3" t="n">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="3" t="n">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="3" t="n">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="3" t="n">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="3" t="n">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="3" t="n">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="3" t="n">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="3" t="n">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="3" t="n">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="3" t="n">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="3" t="n">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="3" t="n">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="3" t="n">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="3" t="n">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="3" t="n">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="3" t="n">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="3" t="n">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="3" t="n">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="3" t="n">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="3" t="n">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="3" t="n">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="3" t="n">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="3" t="n">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="3" t="n">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="3" t="n">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="3" t="n">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="3" t="n">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="3" t="n">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="3" t="n">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="3" t="n">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="3" t="n">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="3" t="n">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="3" t="n">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="3" t="n">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="3" t="n">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="3" t="n">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="3" t="n">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="3" t="n">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="3" t="n">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="3" t="n">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="3" t="n">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="3" t="n">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="3" t="n">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="3" t="n">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="3" t="n">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="3" t="n">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="3" t="n">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="3" t="n">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="3" t="n">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="3" t="n">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="3" t="n">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="3" t="n">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="3" t="n">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="3" t="n">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="3" t="n">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="3" t="n">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="3" t="n">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="3" t="n">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="3" t="n">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="3" t="n">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="3" t="n">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="3" t="n">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="3" t="n">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="3" t="n">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="3" t="n">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="3" t="n">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="3" t="n">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="3" t="n">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="3" t="n">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="3" t="n">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="3" t="n">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="3" t="n">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
-      <c r="A207" s="3" t="n">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="3" t="n">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="3" t="n">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="3" t="n">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="3" t="n">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
         <v>210</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2"/>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1725031464" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.500000" footer="0.500000"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1725031464" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1725031464" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup fitToWidth="0" pageOrder="overThenDown"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1725031464" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">

--- a/Actions.xlsx
+++ b/Actions.xlsx
@@ -1,1404 +1,1775 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="Brandon"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$2</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext uri="smNativeData">
+      <pm:revision xmlns:pm="smNativeData" day="1725371767" val="1216" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1725371767" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1725371767" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1725371767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Assigned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assignee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completion Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artifact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collect hardware items from Mr. Kelly that are in stock in Russ building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I did this Tuesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submit Order for any remaining parts needed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sent email to Mr. Kelley on 8/31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Sep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setup website backend, config vite for AWS host</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Sep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commit hash: ` f967e5a`</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Date Assigned</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>Completion Date</t>
+  </si>
+  <si>
+    <t>Artifact</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>Collect hardware items from Mr. Kelly that are in stock in Russ building</t>
+  </si>
+  <si>
+    <t>I did this Tuesday</t>
+  </si>
+  <si>
+    <t>Submit Order for any remaining parts needed</t>
+  </si>
+  <si>
+    <t>Sent email to Mr. Kelley on 8/31</t>
+  </si>
+  <si>
+    <t>3-Sep-24</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>Setup website backend, config vite for AWS host</t>
+  </si>
+  <si>
+    <t>7-Sep-24</t>
+  </si>
+  <si>
+    <t>Commit hash: ` f967e5a`</t>
+  </si>
+  <si>
+    <t>27-Aug-24</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Setup git repository for team collab</t>
+  </si>
+  <si>
+    <t>29-Aug-24</t>
+  </si>
+  <si>
+    <t>Configure AWS instance for team access</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="000"/>
-    <numFmt numFmtId="166" formatCode="d\-mmm"/>
-    <numFmt numFmtId="167" formatCode="@"/>
+  <numFmts count="17">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="000"/>
+    <numFmt numFmtId="165" formatCode="D\-MMM"/>
+    <numFmt numFmtId="49" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="_-_$* #,##0.00_ ;_-_$* \-#,##0.00\ ;_-_$* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="_-_$* #,##0_ ;_-_$* \-#,##0\ ;_-_$* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;* #,##0.00_ ;_-&quot;$&quot;* \-#,##0.00\ ;_-&quot;$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;* #,##0_ ;_-&quot;$&quot;* \-#,##0\ ;_-&quot;$&quot;* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="9" formatCode="0%"/>
+    <numFmt numFmtId="170" formatCode="[$-409]D\-MMM\-YY;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1725371767" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
+      <name val="Basic Sans"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1725371767" ulstyle="none" kern="1">
+            <pm:latin face="Basic Sans" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1725371767" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="240" lang="default"/>
+            <pm:cs face="Basic Roman" sz="240" lang="default"/>
+            <pm:ea face="Basic Roman" sz="240" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
+      <color rgb="FF000000"/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1725371767" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="320" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="320" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="320" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1725371767" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+  <borders count="2">
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1725371767"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1725371767"/>
+        </ext>
+      </extLst>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8DEE9"/>
-          <bgColor rgb="FF3B4252"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <tableStyles count="0"/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:charStyles xmlns:pm="smNativeData" id="1725371767" count="1">
+        <pm:charStyle name="Normal" fontId="0" Id="1"/>
+      </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1725371767" count="2">
+        <pm:color name="Color 24" rgb="D8DEE9"/>
+        <pm:color name="Color 25" rgb="3B4252"/>
+      </pm:colors>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="EEECE1"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="1F497D"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Basic Roman"/>
+        <a:cs typeface="Basic Roman"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr>
+        <a:prstTxWarp prst="textNoShape">
+          <a:avLst/>
+        </a:prstTxWarp>
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G211"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.009009" defaultRowHeight="15.80"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="20.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="2" width="10"/>
+    <col min="1" max="1" width="5.891892" customWidth="1" style="8"/>
+    <col min="2" max="2" width="13.891892" customWidth="1" style="13"/>
+    <col min="3" max="3" width="14.216216" customWidth="1" style="9"/>
+    <col min="4" max="4" width="17.891892" customWidth="1" style="9"/>
+    <col min="5" max="5" width="13.729730" customWidth="1" style="13"/>
+    <col min="6" max="6" width="18.000000" customWidth="1" style="13"/>
+    <col min="7" max="7" width="19.279279" customWidth="1" style="9"/>
+    <col min="8" max="8" width="20.558559" customWidth="1" style="9"/>
+    <col min="9" max="1024" width="10.000000" customWidth="1" style="9"/>
+    <col min="1025" max="16384" width="10.009009" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:7">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="15" t="n">
         <v>45531</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="15" t="n">
         <v>45535</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="15" t="n">
         <v>45535</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="15" t="n">
         <v>45531</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="15" t="n">
         <v>45535</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="15" t="n">
         <v>45535</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7" ht="38.05" customHeight="1">
+      <c r="A4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="B6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:1">
+      <c r="A9" s="8" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:1">
+      <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:1">
+      <c r="A11" s="8" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:1">
+      <c r="A12" s="8" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:1">
+      <c r="A13" s="8" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:1">
+      <c r="A14" s="8" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:1">
+      <c r="A15" s="8" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:1">
+      <c r="A16" s="8" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:1">
+      <c r="A17" s="8" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:1">
+      <c r="A18" s="8" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:1">
+      <c r="A19" s="8" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:1">
+      <c r="A20" s="8" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:1">
+      <c r="A21" s="8" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:1">
+      <c r="A22" s="8" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:1">
+      <c r="A23" s="8" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:1">
+      <c r="A24" s="8" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:1">
+      <c r="A25" s="8" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:1">
+      <c r="A28" s="8" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:1">
+      <c r="A30" s="8" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:1">
+      <c r="A31" s="8" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:1">
+      <c r="A32" s="8" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:1">
+      <c r="A33" s="8" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:1">
+      <c r="A34" s="8" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:1">
+      <c r="A35" s="8" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:1">
+      <c r="A36" s="8" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:1">
+      <c r="A37" s="8" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:1">
+      <c r="A38" s="8" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:1">
+      <c r="A39" s="8" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:1">
+      <c r="A40" s="8" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:1">
+      <c r="A41" s="8" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:1">
+      <c r="A42" s="8" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:1">
+      <c r="A43" s="8" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:1">
+      <c r="A44" s="8" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:1">
+      <c r="A45" s="8" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:1">
+      <c r="A46" s="8" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:1">
+      <c r="A47" s="8" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:1">
+      <c r="A48" s="8" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:1">
+      <c r="A49" s="8" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:1">
+      <c r="A50" s="8" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:1">
+      <c r="A51" s="8" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:1">
+      <c r="A52" s="8" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:1">
+      <c r="A53" s="8" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:1">
+      <c r="A54" s="8" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:1">
+      <c r="A55" s="8" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:1">
+      <c r="A56" s="8" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:1">
+      <c r="A57" s="8" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:1">
+      <c r="A58" s="8" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:1">
+      <c r="A59" s="8" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:1">
+      <c r="A60" s="8" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:1">
+      <c r="A61" s="8" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:1">
+      <c r="A62" s="8" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:1">
+      <c r="A63" s="8" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:1">
+      <c r="A64" s="8" t="n">
         <v>63</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:1">
+      <c r="A65" s="8" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:1">
+      <c r="A66" s="8" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:1">
+      <c r="A67" s="8" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:1">
+      <c r="A68" s="8" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:1">
+      <c r="A69" s="8" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:1">
+      <c r="A70" s="8" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:1">
+      <c r="A71" s="8" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:1">
+      <c r="A72" s="8" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:1">
+      <c r="A73" s="8" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:1">
+      <c r="A74" s="8" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:1">
+      <c r="A75" s="8" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:1">
+      <c r="A76" s="8" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:1">
+      <c r="A77" s="8" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:1">
+      <c r="A78" s="8" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:1">
+      <c r="A79" s="8" t="n">
         <v>78</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:1">
+      <c r="A80" s="8" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:1">
+      <c r="A81" s="8" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:1">
+      <c r="A82" s="8" t="n">
         <v>81</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:1">
+      <c r="A83" s="8" t="n">
         <v>82</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:1">
+      <c r="A84" s="8" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:1">
+      <c r="A85" s="8" t="n">
         <v>84</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:1">
+      <c r="A86" s="8" t="n">
         <v>85</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:1">
+      <c r="A87" s="8" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:1">
+      <c r="A88" s="8" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:1">
+      <c r="A89" s="8" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:1">
+      <c r="A90" s="8" t="n">
         <v>89</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:1">
+      <c r="A91" s="8" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:1">
+      <c r="A92" s="8" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:1">
+      <c r="A93" s="8" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:1">
+      <c r="A94" s="8" t="n">
         <v>93</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:1">
+      <c r="A95" s="8" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:1">
+      <c r="A96" s="8" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:1">
+      <c r="A97" s="8" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:1">
+      <c r="A98" s="8" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:1">
+      <c r="A99" s="8" t="n">
         <v>98</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:1">
+      <c r="A100" s="8" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:1">
+      <c r="A101" s="8" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:1">
+      <c r="A102" s="8" t="n">
         <v>101</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:1">
+      <c r="A103" s="8" t="n">
         <v>102</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:1">
+      <c r="A104" s="8" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:1">
+      <c r="A105" s="8" t="n">
         <v>104</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:1">
+      <c r="A106" s="8" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:1">
+      <c r="A107" s="8" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:1">
+      <c r="A108" s="8" t="n">
         <v>107</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:1">
+      <c r="A109" s="8" t="n">
         <v>108</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:1">
+      <c r="A110" s="8" t="n">
         <v>109</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:1">
+      <c r="A111" s="8" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:1">
+      <c r="A112" s="8" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:1">
+      <c r="A113" s="8" t="n">
         <v>112</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:1">
+      <c r="A114" s="8" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:1">
+      <c r="A115" s="8" t="n">
         <v>114</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:1">
+      <c r="A116" s="8" t="n">
         <v>115</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:1">
+      <c r="A117" s="8" t="n">
         <v>116</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:1">
+      <c r="A118" s="8" t="n">
         <v>117</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:1">
+      <c r="A119" s="8" t="n">
         <v>118</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:1">
+      <c r="A120" s="8" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:1">
+      <c r="A121" s="8" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:1">
+      <c r="A122" s="8" t="n">
         <v>121</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:1">
+      <c r="A123" s="8" t="n">
         <v>122</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:1">
+      <c r="A124" s="8" t="n">
         <v>123</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:1">
+      <c r="A125" s="8" t="n">
         <v>124</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:1">
+      <c r="A126" s="8" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:1">
+      <c r="A127" s="8" t="n">
         <v>126</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:1">
+      <c r="A128" s="8" t="n">
         <v>127</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:1">
+      <c r="A129" s="8" t="n">
         <v>128</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:1">
+      <c r="A130" s="8" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:1">
+      <c r="A131" s="8" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:1">
+      <c r="A132" s="8" t="n">
         <v>131</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:1">
+      <c r="A133" s="8" t="n">
         <v>132</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:1">
+      <c r="A134" s="8" t="n">
         <v>133</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:1">
+      <c r="A135" s="8" t="n">
         <v>134</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:1">
+      <c r="A136" s="8" t="n">
         <v>135</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:1">
+      <c r="A137" s="8" t="n">
         <v>136</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:1">
+      <c r="A138" s="8" t="n">
         <v>137</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:1">
+      <c r="A139" s="8" t="n">
         <v>138</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:1">
+      <c r="A140" s="8" t="n">
         <v>139</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:1">
+      <c r="A141" s="8" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:1">
+      <c r="A142" s="8" t="n">
         <v>141</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:1">
+      <c r="A143" s="8" t="n">
         <v>142</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:1">
+      <c r="A144" s="8" t="n">
         <v>143</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:1">
+      <c r="A145" s="8" t="n">
         <v>144</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:1">
+      <c r="A146" s="8" t="n">
         <v>145</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:1">
+      <c r="A147" s="8" t="n">
         <v>146</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:1">
+      <c r="A148" s="8" t="n">
         <v>147</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:1">
+      <c r="A149" s="8" t="n">
         <v>148</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:1">
+      <c r="A150" s="8" t="n">
         <v>149</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:1">
+      <c r="A151" s="8" t="n">
         <v>150</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:1">
+      <c r="A152" s="8" t="n">
         <v>151</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:1">
+      <c r="A153" s="8" t="n">
         <v>152</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:1">
+      <c r="A154" s="8" t="n">
         <v>153</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:1">
+      <c r="A155" s="8" t="n">
         <v>154</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:1">
+      <c r="A156" s="8" t="n">
         <v>155</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:1">
+      <c r="A157" s="8" t="n">
         <v>156</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:1">
+      <c r="A158" s="8" t="n">
         <v>157</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:1">
+      <c r="A159" s="8" t="n">
         <v>158</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
+    <row r="160" spans="1:1">
+      <c r="A160" s="8" t="n">
         <v>159</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:1">
+      <c r="A161" s="8" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:1">
+      <c r="A162" s="8" t="n">
         <v>161</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:1">
+      <c r="A163" s="8" t="n">
         <v>162</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
+    <row r="164" spans="1:1">
+      <c r="A164" s="8" t="n">
         <v>163</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:1">
+      <c r="A165" s="8" t="n">
         <v>164</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
+    <row r="166" spans="1:1">
+      <c r="A166" s="8" t="n">
         <v>165</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
+    <row r="167" spans="1:1">
+      <c r="A167" s="8" t="n">
         <v>166</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:1">
+      <c r="A168" s="8" t="n">
         <v>167</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:1">
+      <c r="A169" s="8" t="n">
         <v>168</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
+    <row r="170" spans="1:1">
+      <c r="A170" s="8" t="n">
         <v>169</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
+    <row r="171" spans="1:1">
+      <c r="A171" s="8" t="n">
         <v>170</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
+    <row r="172" spans="1:1">
+      <c r="A172" s="8" t="n">
         <v>171</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:1">
+      <c r="A173" s="8" t="n">
         <v>172</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
+    <row r="174" spans="1:1">
+      <c r="A174" s="8" t="n">
         <v>173</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:1">
+      <c r="A175" s="8" t="n">
         <v>174</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:1">
+      <c r="A176" s="8" t="n">
         <v>175</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
+    <row r="177" spans="1:1">
+      <c r="A177" s="8" t="n">
         <v>176</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:1">
+      <c r="A178" s="8" t="n">
         <v>177</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:1">
+      <c r="A179" s="8" t="n">
         <v>178</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
+    <row r="180" spans="1:1">
+      <c r="A180" s="8" t="n">
         <v>179</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:1">
+      <c r="A181" s="8" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:1">
+      <c r="A182" s="8" t="n">
         <v>181</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:1">
+      <c r="A183" s="8" t="n">
         <v>182</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
+    <row r="184" spans="1:1">
+      <c r="A184" s="8" t="n">
         <v>183</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
+    <row r="185" spans="1:1">
+      <c r="A185" s="8" t="n">
         <v>184</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
+    <row r="186" spans="1:1">
+      <c r="A186" s="8" t="n">
         <v>185</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
+    <row r="187" spans="1:1">
+      <c r="A187" s="8" t="n">
         <v>186</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="n">
+    <row r="188" spans="1:1">
+      <c r="A188" s="8" t="n">
         <v>187</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
+    <row r="189" spans="1:1">
+      <c r="A189" s="8" t="n">
         <v>188</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="n">
+    <row r="190" spans="1:1">
+      <c r="A190" s="8" t="n">
         <v>189</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="n">
+    <row r="191" spans="1:1">
+      <c r="A191" s="8" t="n">
         <v>190</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="n">
+    <row r="192" spans="1:1">
+      <c r="A192" s="8" t="n">
         <v>191</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="n">
+    <row r="193" spans="1:1">
+      <c r="A193" s="8" t="n">
         <v>192</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
+    <row r="194" spans="1:1">
+      <c r="A194" s="8" t="n">
         <v>193</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="n">
+    <row r="195" spans="1:1">
+      <c r="A195" s="8" t="n">
         <v>194</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="n">
+    <row r="196" spans="1:1">
+      <c r="A196" s="8" t="n">
         <v>195</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="n">
+    <row r="197" spans="1:1">
+      <c r="A197" s="8" t="n">
         <v>196</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="n">
+    <row r="198" spans="1:1">
+      <c r="A198" s="8" t="n">
         <v>197</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="n">
+    <row r="199" spans="1:1">
+      <c r="A199" s="8" t="n">
         <v>198</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="n">
+    <row r="200" spans="1:1">
+      <c r="A200" s="8" t="n">
         <v>199</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="n">
+    <row r="201" spans="1:1">
+      <c r="A201" s="8" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="n">
+    <row r="202" spans="1:1">
+      <c r="A202" s="8" t="n">
         <v>201</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="n">
+    <row r="203" spans="1:1">
+      <c r="A203" s="8" t="n">
         <v>202</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="n">
+    <row r="204" spans="1:1">
+      <c r="A204" s="8" t="n">
         <v>203</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="n">
+    <row r="205" spans="1:1">
+      <c r="A205" s="8" t="n">
         <v>204</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="n">
+    <row r="206" spans="1:1">
+      <c r="A206" s="8" t="n">
         <v>205</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="n">
+    <row r="207" spans="1:1">
+      <c r="A207" s="8" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="n">
+    <row r="208" spans="1:1">
+      <c r="A208" s="8" t="n">
         <v>207</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="n">
+    <row r="209" spans="1:1">
+      <c r="A209" s="8" t="n">
         <v>208</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="n">
+    <row r="210" spans="1:1">
+      <c r="A210" s="8" t="n">
         <v>209</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="n">
+    <row r="211" spans="1:1">
+      <c r="A211" s="8" t="n">
         <v>210</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G2"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1725371767" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.511806" footer="0.511806"/>
+  <pageSetup paperSize="1" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" cellComments="asDisplayed"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1725371767" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1725371767" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1725371767" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>